--- a/files/pais.xlsx
+++ b/files/pais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">OX</t>
   </si>
   <si>
+    <t xml:space="preserve">Newyouk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estados Unidos</t>
   </si>
   <si>
@@ -131,6 +137,18 @@
   </si>
   <si>
     <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
   </si>
 </sst>
 </file>
@@ -140,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,13 +195,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -239,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,10 +276,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,13 +296,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.36"/>
   </cols>
@@ -360,36 +367,37 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -404,90 +412,104 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="4" t="s">
-        <v>27</v>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,25 +517,99 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
